--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="668">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="671">
   <si>
     <t>ΣΕΙΡΕΣ</t>
   </si>
@@ -2022,6 +2022,15 @@
   </si>
   <si>
     <t>test-kasa</t>
+  </si>
+  <si>
+    <t>ΘΕΣΗ ΜΗΧΑΝΙΣΜΟΥ</t>
+  </si>
+  <si>
+    <t>LEFT</t>
+  </si>
+  <si>
+    <t>RIGHT</t>
   </si>
 </sst>
 </file>
@@ -2420,7 +2429,7 @@
   <dimension ref="A1:J523"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2433,8 +2442,8 @@
     <col min="6" max="6" width="36.42578125" style="6" customWidth="1"/>
     <col min="7" max="7" width="21.28515625" style="6" customWidth="1"/>
     <col min="8" max="8" width="31.7109375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="21.85546875" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="6"/>
+    <col min="9" max="10" width="21.85546875" style="6" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -2463,9 +2472,11 @@
         <v>637</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="J1" s="8"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
@@ -2477,6 +2488,7 @@
       <c r="G2" s="7"/>
       <c r="H2" s="10"/>
       <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -2503,7 +2515,10 @@
       <c r="H3" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="J3" s="6" t="s">
         <v>650</v>
       </c>
     </row>
@@ -2532,7 +2547,10 @@
       <c r="H4" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="J4" s="6" t="s">
         <v>651</v>
       </c>
     </row>
@@ -2561,7 +2579,7 @@
       <c r="H5" s="3" t="s">
         <v>640</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="J5" s="6" t="s">
         <v>652</v>
       </c>
     </row>
@@ -2587,7 +2605,7 @@
       <c r="H6" s="3" t="s">
         <v>641</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="J6" s="6" t="s">
         <v>653</v>
       </c>
     </row>
@@ -2613,7 +2631,7 @@
       <c r="H7" s="3" t="s">
         <v>642</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="J7" s="6" t="s">
         <v>654</v>
       </c>
     </row>
